--- a/xlsx/inf-sup test.xlsx
+++ b/xlsx/inf-sup test.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22019\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77795B37-2306-49D7-B65F-180FC755CB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="11020" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="6624" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +20,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,59 +31,56 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
-    <t>log10（1/n）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>单元T3-mix</t>
+  </si>
+  <si>
+    <t>横坐标</t>
+  </si>
+  <si>
+    <t>纵坐标</t>
   </si>
   <si>
     <t>n</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>log10（1/n）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(最优)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>λ</t>
+    </r>
   </si>
   <si>
     <t>(最优)log10(IS)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1：0.5）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1：1.5）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>（稳定项）</t>
-    </r>
-    <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="161"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>λ</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(稳定项)log10(IS)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1：1)log10(IS)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1：0.5)log10(IS)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1；1.5)log10(IS)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>（1：1）</t>
     </r>
     <r>
@@ -96,111 +89,259 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="3"/>
         <charset val="161"/>
       </rPr>
       <t>λ</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>(最优)</t>
-    </r>
+    <t>(1：1)log10(IS)</t>
+  </si>
+  <si>
+    <t>（1：0.5）</t>
+  </si>
+  <si>
+    <t>(1：0.5)log10(IS)</t>
+  </si>
+  <si>
+    <t>（1：1.5）</t>
+  </si>
+  <si>
+    <t>(1；1.5)log10(IS)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（稳定项）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="161"/>
       </rPr>
       <t>λ</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>横坐标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>纵坐标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单元T3-mix</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>(稳定项)log10(IS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="161"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="161"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="161"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,8 +354,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -222,9 +549,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -232,40 +801,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -281,19 +894,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB64B903-C1B6-4FC3-91ED-871829E370DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -301,7 +908,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="95250"/>
-          <a:ext cx="5234377" cy="3559175"/>
+          <a:ext cx="4740910" cy="3799205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -557,583 +1164,595 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A23:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="10.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="13.8796296296296" customWidth="1"/>
+    <col min="6" max="6" width="11.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="23" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="23" ht="20.4" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27">
         <f>LOG10(1/A27)</f>
-        <v>-0.3010299956639812</v>
+        <v>-0.301029995663981</v>
       </c>
       <c r="C27">
-        <v>4.8305577567903803E-2</v>
+        <v>0.0483055775679038</v>
       </c>
       <c r="D27">
         <f>LOG10(SQRT(C27))</f>
-        <v>-0.65800136043053037</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-0.65800136043053</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>4</v>
       </c>
       <c r="B28">
         <f t="shared" ref="B28:B32" si="0">LOG10(1/A28)</f>
-        <v>-0.6020599913279624</v>
+        <v>-0.602059991327962</v>
       </c>
       <c r="C28">
-        <v>3.3556286005038703E-2</v>
+        <v>0.0335562860050387</v>
       </c>
       <c r="D28">
         <f t="shared" ref="D28:D59" si="1">LOG10(SQRT(C28))</f>
-        <v>-0.73711305635276947</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-0.737113056352769</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>8</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>-0.90308998699194354</v>
+        <v>-0.903089986991944</v>
       </c>
       <c r="C29">
-        <v>1.87276503447001E-2</v>
+        <v>0.0187276503447001</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>-0.86375835387359556</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-0.863758353873596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>16</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>-1.2041199826559248</v>
+        <v>-1.20411998265592</v>
       </c>
       <c r="C30">
-        <v>8.1520589078238597E-3</v>
+        <v>0.00815205890782386</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>-1.044366345361315</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.04436634536132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>32</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>-1.505149978319906</v>
+        <v>-1.50514997831991</v>
       </c>
       <c r="C31">
-        <v>2.2662931318053001E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.0022662931318053</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>64</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>-1.8061799739838871</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+        <v>-1.80617997398389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35">
         <f>LOG10(1/A35)</f>
-        <v>-0.3010299956639812</v>
-      </c>
-      <c r="C35" s="2">
-        <v>3.1882671572439902E-24</v>
+        <v>-0.301029995663981</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3.18826715724399e-24</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>-11.74822264726788</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-11.7482226472679</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>4</v>
       </c>
       <c r="B36">
         <f t="shared" ref="B36:B40" si="2">LOG10(1/A36)</f>
-        <v>-0.6020599913279624</v>
-      </c>
-      <c r="C36" s="2">
-        <v>6.66688146335743E-6</v>
+        <v>-0.602059991327962</v>
+      </c>
+      <c r="C36" s="5">
+        <v>6.66688146335743e-6</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>-2.5880386332642336</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-2.58803863326423</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>8</v>
       </c>
       <c r="B37">
         <f t="shared" si="2"/>
-        <v>-0.90308998699194354</v>
-      </c>
-      <c r="C37" s="2">
-        <v>3.1946642396872298E-5</v>
+        <v>-0.903089986991944</v>
+      </c>
+      <c r="C37" s="5">
+        <v>3.19466423968723e-5</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>-2.2477873898034346</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-2.24778738980343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>16</v>
       </c>
       <c r="B38">
         <f t="shared" si="2"/>
-        <v>-1.2041199826559248</v>
-      </c>
-      <c r="C38" s="2">
-        <v>2.1287312782898999E-5</v>
+        <v>-1.20411998265592</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2.1287312782899e-5</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>-2.3359395792671416</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-2.33593957926714</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>32</v>
       </c>
       <c r="B39">
         <f t="shared" si="2"/>
-        <v>-1.505149978319906</v>
-      </c>
-      <c r="C39" s="2">
-        <v>9.6523941947587001E-6</v>
+        <v>-1.50514997831991</v>
+      </c>
+      <c r="C39" s="5">
+        <v>9.6523941947587e-6</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>-2.5076824751101436</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-2.50768247511014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>64</v>
       </c>
       <c r="B40">
         <f t="shared" si="2"/>
-        <v>-1.8061799739838871</v>
-      </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.80617997398389</v>
+      </c>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42">
         <f>LOG10(1/A42)</f>
-        <v>-0.3010299956639812</v>
+        <v>-0.301029995663981</v>
       </c>
       <c r="C42">
-        <v>0.83210977572976996</v>
+        <v>0.83210977572977</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>-3.9909687907044251E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-0.0399096879070443</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>4</v>
       </c>
       <c r="B43">
         <f t="shared" ref="B43:B47" si="3">LOG10(1/A43)</f>
-        <v>-0.6020599913279624</v>
+        <v>-0.602059991327962</v>
       </c>
       <c r="C43">
-        <v>0.47734542493500498</v>
+        <v>0.477345424935005</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>-0.16058361776353669</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-0.160583617763537</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>8</v>
       </c>
       <c r="B44">
         <f t="shared" si="3"/>
-        <v>-0.90308998699194354</v>
+        <v>-0.903089986991944</v>
       </c>
       <c r="C44">
-        <v>0.25876647638633199</v>
+        <v>0.258766476386332</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>-0.29354599395427194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-0.293545993954272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>16</v>
       </c>
       <c r="B45">
         <f t="shared" si="3"/>
-        <v>-1.2041199826559248</v>
+        <v>-1.20411998265592</v>
       </c>
       <c r="C45">
-        <v>0.19021857506432499</v>
+        <v>0.190218575064325</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>-0.36037353798414407</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-0.360373537984144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>32</v>
       </c>
       <c r="B46">
         <f t="shared" si="3"/>
-        <v>-1.505149978319906</v>
+        <v>-1.50514997831991</v>
       </c>
       <c r="C46">
         <v>0.188975648283873</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D46">
+        <f>LOG10(SQRT(C46))</f>
+        <v>-0.361797078065013</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>64</v>
       </c>
       <c r="B47">
         <f t="shared" si="3"/>
-        <v>-1.8061799739838871</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.80617997398389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49">
         <f>LOG10(1/A49)</f>
-        <v>-0.3010299956639812</v>
-      </c>
-      <c r="C49" s="2">
-        <v>1.6429013614940001E-24</v>
+        <v>-0.301029995663981</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1.642901361494e-24</v>
       </c>
       <c r="D49">
         <f>LOG10(SQRT(C49))</f>
-        <v>-11.892194255240721</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+        <v>-11.8921942552407</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>4</v>
       </c>
       <c r="B50">
         <f t="shared" ref="B50:B54" si="4">LOG10(1/A50)</f>
-        <v>-0.6020599913279624</v>
-      </c>
-      <c r="C50" s="2">
-        <v>1.0490944903732301E-17</v>
+        <v>-0.602059991327962</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1.04909449037323e-17</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>-8.4895926968948441</v>
-      </c>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+        <v>-8.48959269689484</v>
+      </c>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>8</v>
       </c>
       <c r="B51">
         <f t="shared" si="4"/>
-        <v>-0.90308998699194354</v>
-      </c>
-      <c r="C51" s="2">
-        <v>2.4190976537450101E-15</v>
+        <v>-0.903089986991944</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2.41909765374501e-15</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>-7.3081732998772297</v>
-      </c>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+        <v>-7.30817329987723</v>
+      </c>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>16</v>
       </c>
       <c r="B52">
         <f t="shared" si="4"/>
-        <v>-1.2041199826559248</v>
-      </c>
-      <c r="C52" s="2">
-        <v>4.9846091056654297E-13</v>
+        <v>-1.20411998265592</v>
+      </c>
+      <c r="C52" s="5">
+        <v>4.98460910566543e-13</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>-6.151184446751266</v>
-      </c>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+        <v>-6.15118444675127</v>
+      </c>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>32</v>
       </c>
       <c r="B53">
         <f t="shared" si="4"/>
-        <v>-1.505149978319906</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+        <v>-1.50514997831991</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1.67900662339544e-11</v>
+      </c>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>64</v>
       </c>
       <c r="B54">
         <f t="shared" si="4"/>
-        <v>-1.8061799739838871</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+        <v>-1.80617997398389</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>2</v>
       </c>
       <c r="B56">
         <f>LOG10(1/A56)</f>
-        <v>-0.3010299956639812</v>
+        <v>-0.301029995663981</v>
       </c>
       <c r="C56">
         <v>0.168447595595278</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>-0.38676759185806903</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+        <v>-0.386767591858069</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>4</v>
       </c>
       <c r="B57">
         <f t="shared" ref="B57:B61" si="5">LOG10(1/A57)</f>
-        <v>-0.6020599913279624</v>
+        <v>-0.602059991327962</v>
       </c>
       <c r="C57">
-        <v>8.1117874959487801E-2</v>
+        <v>0.0811178749594878</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>-0.5454417175251961</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+        <v>-0.545441717525196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>8</v>
       </c>
       <c r="B58">
         <f t="shared" si="5"/>
-        <v>-0.90308998699194354</v>
+        <v>-0.903089986991944</v>
       </c>
       <c r="C58">
-        <v>8.7157303623529594E-2</v>
+        <v>0.0871573036235296</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>-0.52984810697066931</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+        <v>-0.529848106970669</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>16</v>
       </c>
       <c r="B59">
         <f t="shared" si="5"/>
-        <v>-1.2041199826559248</v>
+        <v>-1.20411998265592</v>
       </c>
       <c r="C59">
-        <v>8.4500000000000006E-2</v>
+        <v>0.0845</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>-0.5365716455251538</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+        <v>-0.536571645525154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>32</v>
       </c>
       <c r="B60">
         <f t="shared" si="5"/>
-        <v>-1.505149978319906</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+        <v>-1.50514997831991</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>64</v>
       </c>
       <c r="B61">
         <f t="shared" si="5"/>
-        <v>-1.8061799739838871</v>
-      </c>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C64" s="2"/>
+        <v>-1.80617997398389</v>
+      </c>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/xlsx/inf-sup test.xlsx
+++ b/xlsx/inf-sup test.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22019\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0982D6-9558-4B38-935E-5D4F91A38FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25510" yWindow="0" windowWidth="10980" windowHeight="15610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="10800" windowHeight="15255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +20,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -58,7 +54,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>λ</t>
     </r>
@@ -115,23 +111,26 @@
     </r>
   </si>
   <si>
+    <t>1.3767660e-</t>
+  </si>
+  <si>
     <t>稳定1；1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>quad稳定项1：1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3767660e-</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,11 +155,162 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -175,23 +325,8 @@
       <name val="Calibri"/>
       <charset val="161"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,8 +339,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -213,9 +534,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -235,24 +798,68 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -502,34 +1109,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A4:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="13.75"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="4" ht="20.25" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" ht="15" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -537,126 +1144,126 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>4.8305577567903803E-2</v>
+        <v>0.0483055775679038</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C11" si="0">LOG10(SQRT(B6))</f>
-        <v>-0.65800136043053037</v>
+        <v>-0.65800136043053</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D11" si="1">LOG10(1/A6)</f>
-        <v>-0.3010299956639812</v>
+        <v>-0.301029995663981</v>
       </c>
       <c r="F6">
-        <v>7.6459791957954404E-3</v>
+        <v>0.00764597919579544</v>
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>3.3556286005038703E-2</v>
+        <v>0.0335562860050387</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>-0.73711305635276947</v>
+        <v>-0.737113056352769</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>-0.6020599913279624</v>
+        <v>-0.602059991327962</v>
       </c>
       <c r="F7">
-        <v>1.6348790470491099E-3</v>
+        <v>0.00163487904704911</v>
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1.87276503447001E-2</v>
+        <v>0.0187276503447001</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>-0.86375835387359556</v>
+        <v>-0.863758353873596</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>-0.90308998699194354</v>
+        <v>-0.903089986991944</v>
       </c>
       <c r="F8">
-        <v>1.88049517923798E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>0.00188049517923798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>16</v>
       </c>
       <c r="B9">
-        <v>8.1520589078238597E-3</v>
+        <v>0.00815205890782386</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>-1.044366345361315</v>
+        <v>-1.04436634536132</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>-1.2041199826559248</v>
+        <v>-1.20411998265592</v>
       </c>
       <c r="F9">
-        <v>2.3146003206244701E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+        <v>0.00231460032062447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>32</v>
       </c>
       <c r="B10">
-        <v>2.2662931318053001E-3</v>
+        <v>0.0022662931318053</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>-1.3223419586899641</v>
+        <v>-1.32234195868996</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>-1.505149978319906</v>
+        <v>-1.50514997831991</v>
       </c>
       <c r="F10">
-        <v>2.5475628198202001E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>0.00025475628198202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>64</v>
       </c>
       <c r="B11">
-        <v>1.04502466293E-3</v>
+        <v>0.00104502466293</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>-1.4904367299688013</v>
+        <v>-1.4904367299688</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>-1.8061799739838871</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>-1.80617997398389</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
       <c r="C12" t="e">
         <f t="shared" ref="C12:C61" si="2">LOG10(SQRT(B12))</f>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="13" ht="15" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -668,94 +1275,94 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" s="4">
-        <v>4.6974000000000002E-2</v>
+        <v>0.046974</v>
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
-        <v>-0.66407122827582143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+        <v>-0.664071228275821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>6.66688146335743E-6</v>
+        <v>6.66688146335743e-6</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
-        <v>-2.5880386332642336</v>
+        <v>-2.58803863326423</v>
       </c>
       <c r="F15" s="4">
-        <v>1.6858410288735499E-6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+        <v>1.68584102887355e-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>8</v>
       </c>
       <c r="B16" s="4">
-        <v>3.1946642396872298E-5</v>
+        <v>3.19466423968723e-5</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
-        <v>-2.2477873898034346</v>
+        <v>-2.24778738980343</v>
       </c>
       <c r="F16" s="4">
-        <v>5.3217440600294596E-7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+        <v>5.32174406002946e-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>2.1287312782898999E-5</v>
+        <v>2.1287312782899e-5</v>
       </c>
       <c r="C17">
         <f t="shared" si="2"/>
-        <v>-2.3359395792671416</v>
+        <v>-2.33593957926714</v>
       </c>
       <c r="F17" s="4">
-        <v>1.0783218844436E-7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.0783218844436e-7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>32</v>
       </c>
       <c r="B18" s="4">
-        <v>9.6523941947587001E-6</v>
+        <v>9.6523941947587e-6</v>
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>-2.5076824751101436</v>
+        <v>-2.50768247511014</v>
       </c>
       <c r="F18" s="4">
-        <v>2.58177529348829E-8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2.58177529348829e-8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>64</v>
       </c>
       <c r="B19" s="4">
-        <v>3.4514533826777E-6</v>
+        <v>3.4514533826777e-6</v>
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>-2.7309989940340511</v>
+        <v>-2.73099899403405</v>
       </c>
       <c r="F19" s="4">
-        <v>5.9009850985550201E-9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+        <v>5.90098509855502e-9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -767,67 +1374,67 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>0.83210977572976996</v>
+        <v>0.83210977572977</v>
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
-        <v>-3.9909687907044251E-2</v>
+        <v>-0.0399096879070443</v>
       </c>
       <c r="F21">
-        <v>1.0375501068574999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.0375501068575</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>4</v>
       </c>
       <c r="B22">
-        <v>0.47734542493500498</v>
+        <v>0.477345424935005</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
-        <v>-0.16058361776353669</v>
+        <v>-0.160583617763537</v>
       </c>
       <c r="F22">
-        <v>0.61892615998988598</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0.618926159989886</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>8</v>
       </c>
       <c r="B23">
-        <v>0.25876647638633199</v>
+        <v>0.258766476386332</v>
       </c>
       <c r="C23">
         <f t="shared" si="2"/>
-        <v>-0.29354599395427194</v>
+        <v>-0.293545993954272</v>
       </c>
       <c r="F23">
-        <v>0.33909154170265399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0.339091541702654</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>16</v>
       </c>
       <c r="B24">
-        <v>0.19021857506432499</v>
+        <v>0.190218575064325</v>
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
-        <v>-0.36037353798414407</v>
+        <v>-0.360373537984144</v>
       </c>
       <c r="F24">
-        <v>0.27099939419934699</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0.270999394199347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>32</v>
       </c>
@@ -836,25 +1443,25 @@
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
-        <v>-0.36179707806501332</v>
+        <v>-0.361797078065013</v>
       </c>
       <c r="F25">
-        <v>0.27064566124296902</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0.270645661242969</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>64</v>
       </c>
       <c r="B26">
-        <v>0.18886573895929001</v>
+        <v>0.18886573895929</v>
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
-        <v>-0.36192340889094721</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-0.361923408890947</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
@@ -866,100 +1473,100 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" s="4">
-        <v>5.5572700000000003E-2</v>
+        <v>0.0555727</v>
       </c>
       <c r="C28">
         <f t="shared" si="2"/>
-        <v>-0.62756925125086438</v>
+        <v>-0.627569251250864</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4">
-        <v>2.9899999999999998E-16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2.99e-16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>4</v>
       </c>
       <c r="B29" s="4">
-        <v>1.0490944903732301E-17</v>
+        <v>1.04909449037323e-17</v>
       </c>
       <c r="C29">
         <f t="shared" si="2"/>
-        <v>-8.4895926968948441</v>
+        <v>-8.48959269689484</v>
       </c>
       <c r="D29" s="4"/>
       <c r="F29" s="4">
-        <v>4.6499999999999996E-16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+        <v>4.65e-16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>8</v>
       </c>
       <c r="B30" s="4">
-        <v>2.4190976537450101E-15</v>
+        <v>2.41909765374501e-15</v>
       </c>
       <c r="C30">
         <f t="shared" si="2"/>
-        <v>-7.3081732998772297</v>
+        <v>-7.30817329987723</v>
       </c>
       <c r="D30" s="4"/>
       <c r="F30" s="4">
-        <v>1.0392956177132999E-13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.0392956177133e-13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>16</v>
       </c>
       <c r="B31" s="4">
-        <v>4.9846091056654297E-13</v>
+        <v>4.98460910566543e-13</v>
       </c>
       <c r="C31">
         <f t="shared" si="2"/>
-        <v>-6.151184446751266</v>
+        <v>-6.15118444675127</v>
       </c>
       <c r="D31" s="4"/>
       <c r="F31" s="4">
-        <v>1.72369289275669E-11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1.72369289275669e-11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>32</v>
       </c>
       <c r="B32" s="4">
-        <v>1.6790066233954401E-11</v>
+        <v>1.67900662339544e-11</v>
       </c>
       <c r="C32">
         <f t="shared" si="2"/>
-        <v>-5.3874737953203686</v>
+        <v>-5.38747379532037</v>
       </c>
       <c r="D32" s="4"/>
       <c r="F32" s="4">
-        <v>4.3851442727438597E-12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+        <v>4.38514427274386e-12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>64</v>
       </c>
       <c r="B33" s="4">
-        <v>1.6790137343804199E-11</v>
+        <v>1.67901373438042e-11</v>
       </c>
       <c r="C33">
         <f t="shared" si="2"/>
-        <v>-5.3874728756530628</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+        <v>-5.38747287565306</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
@@ -971,7 +1578,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>2</v>
       </c>
@@ -980,254 +1587,263 @@
       </c>
       <c r="C35">
         <f t="shared" si="2"/>
-        <v>-0.38676759185806903</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+        <v>-0.386767591858069</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>4</v>
       </c>
       <c r="B36">
-        <v>8.1117874959487801E-2</v>
+        <v>0.0811178749594878</v>
       </c>
       <c r="C36">
         <f t="shared" si="2"/>
-        <v>-0.5454417175251961</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+        <v>-0.545441717525196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>8</v>
       </c>
       <c r="B37">
-        <v>8.7157303623529594E-2</v>
+        <v>0.0871573036235296</v>
       </c>
       <c r="C37">
         <f t="shared" si="2"/>
-        <v>-0.52984810697066931</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+        <v>-0.529848106970669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>16</v>
       </c>
       <c r="B38">
-        <v>8.4500011999999999E-2</v>
+        <v>0.084500012</v>
       </c>
       <c r="C38">
         <f t="shared" si="2"/>
         <v>-0.536571614687678</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>32</v>
       </c>
       <c r="B39">
-        <v>8.3876765000000006E-2</v>
+        <v>0.083876765</v>
       </c>
       <c r="C39">
         <f t="shared" si="2"/>
-        <v>-0.53817916398259025</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+        <v>-0.53817916398259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>64</v>
       </c>
       <c r="B40">
-        <v>8.6876467649999997E-2</v>
+        <v>0.08687646765</v>
       </c>
       <c r="C40">
         <f t="shared" si="2"/>
-        <v>-0.53054892278703036</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+        <v>-0.53054892278703</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:2">
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:2">
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:2">
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:4">
       <c r="D45" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:7">
       <c r="B47" s="5"/>
       <c r="G47" s="6">
-        <v>6.2480000000000004E-7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+        <v>6.248e-7</v>
+      </c>
+    </row>
+    <row r="48" spans="7:7">
       <c r="G48" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
       <c r="B49" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>4</v>
       </c>
       <c r="B50">
-        <v>3.0377370000000001E-2</v>
+        <v>0.03037737</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
-        <v>-0.75872491451130697</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+        <v>-0.758724914511307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>8</v>
       </c>
       <c r="B51">
-        <v>1.255E-2</v>
+        <v>0.01255</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
-        <v>-0.95067813709147153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+        <v>-0.950678137091472</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>16</v>
       </c>
       <c r="B52">
-        <v>1.304E-2</v>
+        <v>0.01304</v>
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
-        <v>-0.94236120430204928</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+        <v>-0.942361204302049</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>32</v>
       </c>
       <c r="B53">
-        <v>1.1365184E-2</v>
+        <v>0.011365184</v>
       </c>
       <c r="C53">
         <f t="shared" si="2"/>
-        <v>-0.97221176437171364</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+        <v>-0.972211764371714</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
       <c r="C54" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:3">
       <c r="C55" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:3">
       <c r="C56" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:2">
       <c r="B57" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>4</v>
       </c>
       <c r="B58">
-        <v>3.6868399999999998E-3</v>
+        <v>0.00368684</v>
       </c>
       <c r="C58">
         <f t="shared" si="2"/>
-        <v>-1.2166728546611227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+        <v>-1.21667285466112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>8</v>
       </c>
       <c r="B59">
-        <v>2.4783685478000001E-4</v>
+        <v>0.00024783685478</v>
       </c>
       <c r="C59">
         <f t="shared" si="2"/>
-        <v>-1.8029170555226592</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+        <v>-1.80291705552266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>16</v>
       </c>
       <c r="B60">
-        <v>1.9640400000000001E-4</v>
+        <v>0.000196404</v>
       </c>
       <c r="C60">
         <f t="shared" si="2"/>
-        <v>-1.8534248357688379</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+        <v>-1.85342483576884</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>32</v>
       </c>
       <c r="B61">
-        <v>1.0194E-4</v>
+        <v>0.00010194</v>
       </c>
       <c r="C61">
         <f t="shared" si="2"/>
-        <v>-1.9958276853736554</v>
+        <v>-1.99582768537366</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/xlsx/inf-sup test.xlsx
+++ b/xlsx/inf-sup test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22019\Desktop\test\u-p-mix\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DDEB48-7EE4-4A21-BC74-F673FF0ED24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97174D87-5BA6-4C42-8751-3CD9AA1156D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25490" yWindow="-110" windowWidth="11020" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -662,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:H78"/>
+  <dimension ref="A4:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -677,6 +677,7 @@
     <col min="6" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="13.875" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
@@ -1213,7 +1214,7 @@
         <v>3.9751361691292899E-9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>1.01107913529689E-9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>64</v>
       </c>
@@ -1251,7 +1252,7 @@
         <v>8.6574320000000001E-8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -1270,7 +1271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>2</v>
       </c>
@@ -1293,8 +1294,14 @@
       <c r="H36" s="1">
         <v>1.80495E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I36" s="18">
+        <v>3.5830000000000003E-7</v>
+      </c>
+      <c r="J36" s="1">
+        <v>4.1625579999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>4</v>
       </c>
@@ -1318,7 +1325,7 @@
         <v>1.2805E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>8</v>
       </c>
@@ -1342,7 +1349,7 @@
         <v>1.0005000000000001E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>16</v>
       </c>
@@ -1366,7 +1373,7 @@
         <v>1.0557000000000001E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>32</v>
       </c>
@@ -1390,7 +1397,7 @@
         <v>1.1826769999999999E-7</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>64</v>
       </c>
@@ -1409,7 +1416,7 @@
         <v>3.1429945881052801E-16</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -1418,7 +1425,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>4</v>
       </c>
@@ -1437,7 +1444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>2</v>
       </c>
@@ -1456,7 +1463,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>4</v>
       </c>
@@ -1475,7 +1482,7 @@
         <v>3.0249999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>8</v>
       </c>
@@ -1494,7 +1501,7 @@
         <v>0.1479</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>16</v>
       </c>
@@ -1513,7 +1520,7 @@
         <v>7.9190000000000007E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>32</v>
       </c>
@@ -2095,7 +2102,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
